--- a/report/reliability/by-unidade/UFAL Arapiraca.xlsx
+++ b/report/reliability/by-unidade/UFAL Arapiraca.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.9090842036938691</v>
+        <v>0.8885998021694113</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.9121424611774454</v>
+        <v>0.8928510837739316</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9496492821177248</v>
+        <v>0.9325069778305766</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.37915560649652386</v>
+        <v>0.3906099237764309</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>10.382062523054444</v>
+        <v>8.332805549709418</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.017816837251163304</v>
+        <v>0.02218141492518553</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4235294117647057</v>
+        <v>2.267132867132867</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6590685818767804</v>
+        <v>0.6884753926656048</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.3787748308074189</v>
+        <v>0.3883372158207492</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.9009645428610243</v>
+        <v>0.876448168621552</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.9048768980012186</v>
+        <v>0.8817573180116128</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.943620102861967</v>
+        <v>0.9215204599316607</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.37286119530930323</v>
+        <v>0.38326118431789047</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>9.512693330930396</v>
+        <v>7.457183000113379</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.0194902330066802</v>
+        <v>0.024706489337489996</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.022022572093449117</v>
+        <v>0.023545800019844958</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.3710972029746217</v>
+        <v>0.3883372158207492</v>
       </c>
     </row>
     <row r="12">
@@ -2578,25 +2566,25 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.9033925446867445</v>
+        <v>0.875973810821246</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.9068783347103014</v>
+        <v>0.8819988244276942</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9449044228050348</v>
+        <v>0.9222077025214774</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3783665234321576</v>
+        <v>0.3838093391104293</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>9.738639573175929</v>
+        <v>7.47449184425493</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.01898755333760273</v>
+        <v>0.024842016648123452</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.022902740511396395</v>
+        <v>0.022323989737472925</v>
       </c>
       <c r="I12" t="n" s="65">
         <v>0.3723022021034361</v>
@@ -2607,25 +2595,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.9003912730459823</v>
+        <v>0.8802281837635524</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.9040701974045809</v>
+        <v>0.8854037748906173</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9427153342949662</v>
+        <v>0.9248850356512777</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.3706805367125695</v>
+        <v>0.3916747937340353</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>9.424289146277816</v>
+        <v>7.726290931882745</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.019600169321324877</v>
+        <v>0.023917918759424547</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.022894239168850826</v>
+        <v>0.02241910612020653</v>
       </c>
       <c r="I13" t="n" s="65">
         <v>0.3751594312396386</v>
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.9041988901996767</v>
+        <v>0.8820353458591536</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.9074465271525672</v>
+        <v>0.886716507115489</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9463697129133043</v>
+        <v>0.9272570663891466</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.3799546673437459</v>
+        <v>0.39477727377912425</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>9.804564855696146</v>
+        <v>7.827411430714526</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.018783572360336554</v>
+        <v>0.023563822251259955</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.024061947325927778</v>
+        <v>0.023520832068174027</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.3877076637657356</v>
+        <v>0.4087616672949551</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8994435761935746</v>
+        <v>0.8911392063128943</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.9017263724190494</v>
+        <v>0.8946747886135852</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9402531375030834</v>
+        <v>0.9253754938054184</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.36446577089498394</v>
+        <v>0.41447428273607656</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>9.175669959636666</v>
+        <v>8.494402971869887</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.01969609761451174</v>
+        <v>0.021701857457137246</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.022217115835108964</v>
+        <v>0.018397016495021273</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.3670970216798323</v>
+        <v>0.41616630678196487</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.9016222094674198</v>
+        <v>0.8766336686501054</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.9045776495874955</v>
+        <v>0.8806434721916498</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9418676734911685</v>
+        <v>0.9186787943502146</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.3720497398643042</v>
+        <v>0.3807493491342125</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>9.479725092465934</v>
+        <v>7.378259810018035</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.019247080292227107</v>
+        <v>0.02451693758616098</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.02262343324724853</v>
+        <v>0.02176677802099549</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.3670970216798323</v>
+        <v>0.3628028733095416</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.9048826463441834</v>
+        <v>0.8815868029487354</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.9081318725507147</v>
+        <v>0.8857922312377826</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9456536775104515</v>
+        <v>0.9203764320561325</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.38188540991470893</v>
+        <v>0.39258872530128797</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>9.885167987690156</v>
+        <v>7.755971777033999</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.018658042204098505</v>
+        <v>0.023683093265765055</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.02368603854802466</v>
+        <v>0.024683565403382315</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.39601863983562213</v>
+        <v>0.405111290131283</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.9028762965982696</v>
+        <v>0.8723883637658829</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.9060890201826471</v>
+        <v>0.8748843558959184</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9436908799873366</v>
+        <v>0.9173224727360915</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.3761789763487081</v>
+        <v>0.368175160313164</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>9.64838213747634</v>
+        <v>6.9926056182719885</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.019068876327404893</v>
+        <v>0.025414658975330257</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.02248370504675252</v>
+        <v>0.02109158754312155</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3787748308074189</v>
+        <v>0.3618600615010813</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.9043215848612601</v>
+        <v>0.8812012250364873</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.9073716539458088</v>
+        <v>0.8854805282841964</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9430843683394485</v>
+        <v>0.9262352248778845</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3797447425575715</v>
+        <v>0.3918550994829522</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>9.795831325920046</v>
+        <v>7.732139478268322</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.0187692446303792</v>
+        <v>0.023749677612934412</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.02450586114820732</v>
+        <v>0.02371558102657343</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.38102407689937323</v>
+        <v>0.4025478151462621</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.9100037025621343</v>
+        <v>0.8778384973558195</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.9126651914865026</v>
+        <v>0.8824502670469254</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9457151534143265</v>
+        <v>0.9232812496979474</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.39508937189023197</v>
+        <v>0.3848373988848963</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>10.450188269954838</v>
+        <v>7.507037616148366</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.017608554304043584</v>
+        <v>0.024394883932118503</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.02093437794681581</v>
+        <v>0.022999058641092678</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.40558501264866414</v>
+        <v>0.3883372158207492</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.9020832686001686</v>
+        <v>0.8789599718792565</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.9057639543195938</v>
+        <v>0.8840605192833184</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9439698607710352</v>
+        <v>0.9231087429093228</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.37528431149783975</v>
+        <v>0.38854093835401493</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>9.611650698835735</v>
+        <v>7.625189571477168</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.01926399751874409</v>
+        <v>0.024236606618502157</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.024240920348818643</v>
+        <v>0.02486035814374297</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.3723022021034361</v>
+        <v>0.3751594312396386</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.9032156825449661</v>
+        <v>0.8878302111761743</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.9063453327430773</v>
+        <v>0.8917740695489667</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9438525980134476</v>
+        <v>0.9296910579074921</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.37688697258263815</v>
+        <v>0.4071125681724557</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>9.677524455419837</v>
+        <v>8.23992980085719</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.019022219890477567</v>
+        <v>0.022408186090482098</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.023744904065844917</v>
+        <v>0.021084932361039935</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.3787748308074189</v>
+        <v>0.4122597933622102</v>
       </c>
     </row>
     <row r="23">
@@ -2897,681 +2885,645 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.9014819528320386</v>
+        <v>0.8820371257245617</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.9044675540954644</v>
+        <v>0.8872597641759079</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9428253000474199</v>
+        <v>0.9302437196501496</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.3717519534099056</v>
+        <v>0.39607289577306176</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>9.467647829296526</v>
+        <v>7.869947740399392</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.01936578421041727</v>
+        <v>0.023652477504302365</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.02222681352803952</v>
+        <v>0.025138152085782975</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.3670970216798323</v>
+        <v>0.3883372158207492</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.9110481153776403</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.9141564059388222</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9491998519987253</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.3996043289485683</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>10.649092875670302</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.017484355165897292</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.01974038958407279</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.4087616672949551</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.902924663794229</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.9067147696036412</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9451917289338329</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.3779114372309783</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>9.719810582566069</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.019093336847043476</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.024673344056337792</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.3751594312396386</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.904822171302837</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.908347523660502</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.948452675846881</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.3824963957454519</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>9.910779936766913</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.018720550922290337</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.024436179336604812</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.38102407689937323</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.9084462063649378</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.9110964050526931</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.947290191411247</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.3904329767572394</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>10.248139072359212</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.01797159583878012</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.02078820693104807</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.39601863983562213</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>55.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.725118764935659</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.7178340882508939</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.7052879617869792</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.65373574337482</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.290909090909091</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.1654394700065542</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>55.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.7298146597101528</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.7136266119595399</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.700692144589557</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.6646656113497154</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.0</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.0886621079036347</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>55.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.6731309624713787</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.6532536766135517</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.6333942753363802</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.5885612244627915</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.2060453783110545</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>55.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.6186467884875685</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.6294399447776026</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.5951713294088832</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.5459726158661793</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>1.6</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>0.9545214042184236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>55.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7241890963816767</v>
+        <v>0.4596461688791722</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.713643703932438</v>
+        <v>0.4782514496207575</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.7042210741516692</v>
+        <v>0.4477376407188933</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6727390882746013</v>
+        <v>0.3588578564220437</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.0</v>
+        <v>3.3454545454545452</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.0886621079036347</v>
+        <v>1.057918673240963</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>55.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6687793932534352</v>
+        <v>0.723953458399332</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.6533685777044542</v>
+        <v>0.7371142024211342</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.6390977232607356</v>
+        <v>0.734276772614127</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.6024303224200359</v>
+        <v>0.6679328640236566</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>1.9090909090909092</v>
+        <v>1.8363636363636364</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2060453783110545</v>
+        <v>0.9381549339712925</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>55.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.7400159188929339</v>
+        <v>0.6307093633536274</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.7375186609277562</v>
+        <v>0.6462386044961935</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.7314965298226701</v>
+        <v>0.6280782177149318</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.6870654847537325</v>
+        <v>0.5718023150105452</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.290909090909091</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.1654394700065542</v>
+        <v>0.8040302522073697</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>55.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6275223916930203</v>
+        <v>0.8177642412023766</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6359807721816914</v>
+        <v>0.8336300079338966</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6118331887760831</v>
+        <v>0.8346978176279533</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.5715581226347448</v>
+        <v>0.7811046336175803</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.6</v>
+        <v>1.8909090909090909</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>0.9545214042184236</v>
+        <v>0.8750180373321259</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>55.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.7937171279907879</v>
+        <v>0.6346617648109918</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.8055610710753487</v>
+        <v>0.6518697022798615</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.8082549558216517</v>
+        <v>0.6224362195975197</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.7619338499478351</v>
+        <v>0.5655932773572437</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.8909090909090909</v>
+        <v>2.2181818181818183</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.8750180373321259</v>
+        <v>0.9367182486965211</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>55.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.7114075293630346</v>
+        <v>0.7053123213983358</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.722527929955708</v>
+        <v>0.7057355250146823</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.721029554156446</v>
+        <v>0.6904599548904601</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.6661297025661517</v>
+        <v>0.6291615705405167</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.8363636363636364</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.9381549339712925</v>
+        <v>1.1769389046102543</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>55.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6045122240394105</v>
+        <v>0.6894923240224148</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6148420226682101</v>
+        <v>0.6773082363682813</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5954781116298393</v>
+        <v>0.6511832530559305</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5472910353876581</v>
+        <v>0.6096129754685936</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.2181818181818183</v>
+        <v>2.7636363636363637</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>0.9367182486965211</v>
+        <v>1.185774264377755</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>55.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.6785779076563365</v>
+        <v>0.5612315105559293</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.6773189533482243</v>
+        <v>0.534757823206744</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.6686922899557871</v>
+        <v>0.4896777004638329</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.6154326595835367</v>
+        <v>0.4564186705367815</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.1769389046102543</v>
+        <v>1.223231906179812</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>55.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.6290363555396039</v>
+        <v>0.6186788173316633</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.6382791352769833</v>
+        <v>0.6194951282837067</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.6258245721977528</v>
+        <v>0.5702218042944868</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.5826261713604938</v>
+        <v>0.5458909705595208</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.727272727272727</v>
+        <v>2.890909090909091</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.8040302522073697</v>
+        <v>0.95593133320585</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>55.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.45807690119721256</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.47027834598557217</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.4476795414075557</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.37864082600338667</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.3454545454545452</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>1.057918673240963</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>55.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.6991690853701048</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.6871141981754976</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.671952816904201</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.6386196963295556</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>2.7636363636363637</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.185774264377755</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>55.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.6633828066405633</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.6695674512730051</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.6546503258799848</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.6160958515976603</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.709090909090909</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>0.8750180373321259</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>55.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.7251133498399241</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.725788247184275</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.7168687230469084</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.685072900567633</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.6363636363636362</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.8684519297052394</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>55.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.403890640211295</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.4208463047825396</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.3825404057241073</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.32644224462121935</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.7454545454545456</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.9854155321709573</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.43636363636363634</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>55.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.6720635428374633</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.6583510923899683</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.6372677227757856</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.61188179543267</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.6363636363636362</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.111616046884101</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.4</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.34545454545454546</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>55.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.6072318181263174</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.608152639719597</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.5708355085218375</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.5490282227500897</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>2.890909090909091</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.95593133320585</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>55.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5442611952770969</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5212589230093772</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.4931793928181103</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.4603932874742358</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.2</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.223231906179812</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.6</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.38181818181818183</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.34545454545454546</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.4909090909090909</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.4</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.34545454545454546</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.14545454545454545</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.07272727272727272</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.03636363636363636</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.5636363636363636</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.12727272727272726</v>
+        <v>0.2</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.18181818181818182</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.09090909090909091</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.03636363636363636</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,19 +3554,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
-        <v>0.2545454545454545</v>
+        <v>0.2</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.43636363636363634</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="D55" t="n" s="111">
-        <v>0.14545454545454545</v>
+        <v>0.38181818181818183</v>
       </c>
       <c r="E55" t="n" s="112">
-        <v>0.09090909090909091</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F55" t="n" s="113">
         <v>0.07272727272727272</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.6</v>
+        <v>0.38181818181818183</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.2909090909090909</v>
+        <v>0.23636363636363636</v>
       </c>
       <c r="D56" t="n" s="111">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="E56" t="n" s="112">
         <v>0.05454545454545454</v>
       </c>
-      <c r="E56" t="n" s="112">
-        <v>0.01818181818181818</v>
-      </c>
       <c r="F56" t="n" s="113">
-        <v>0.03636363636363636</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.34545454545454546</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.4909090909090909</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="D57" t="n" s="111">
-        <v>0.10909090909090909</v>
+        <v>0.41818181818181815</v>
       </c>
       <c r="E57" t="n" s="112">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="F57" t="n" s="113">
         <v>0.03636363636363636</v>
       </c>
-      <c r="F57" t="n" s="113">
-        <v>0.01818181818181818</v>
-      </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.41818181818181815</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.41818181818181815</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.5636363636363636</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.12727272727272726</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.5818181818181818</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.2</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.2909090909090909</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.5636363636363636</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.38181818181818183</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.2545454545454545</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.2</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.38181818181818183</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.4727272727272727</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.32727272727272727</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.14545454545454545</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.4</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.2909090909090909</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.12727272727272726</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.43636363636363634</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.14545454545454545</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.2545454545454545</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.2545454545454545</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.41818181818181815</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.21818181818181817</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.38181818181818183</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.23636363636363636</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.2545454545454545</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4027,7 +3703,7 @@
         <v>0.820352832672403</v>
       </c>
       <c r="C6" t="n" s="147">
-        <v>0.8171253152095957</v>
+        <v>0.8171253152095956</v>
       </c>
       <c r="D6" t="n" s="148">
         <v>0.5330630382086978</v>
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.7474142623843222</v>
+        <v>0.7136110558759198</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.7493182645170609</v>
+        <v>0.7064452370636225</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.7100395018360163</v>
+        <v>0.665546415165861</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.49909184485153285</v>
+        <v>0.4451143576087773</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>2.9891218962302823</v>
+        <v>2.406519417355634</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.058239350555337945</v>
+        <v>0.06514539186790691</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.028170180446907774</v>
+        <v>0.045655956009701196</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.5856916643296021</v>
+        <v>0.3385954069291194</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.7813112916783412</v>
+        <v>0.7474142623843222</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.7779062514018574</v>
+        <v>0.7493182645170609</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.7507118181201097</v>
+        <v>0.7100395018360164</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.5386462996751239</v>
+        <v>0.49909184485153285</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>3.502603095818804</v>
+        <v>2.9891218962302823</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.04996106609711009</v>
+        <v>0.058239350555337945</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.031086398819132343</v>
+        <v>0.028170180446907774</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.6059436380554956</v>
+        <v>0.5856916643296021</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.7136110558759198</v>
+        <v>0.7813112916783412</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.7064452370636225</v>
+        <v>0.7779062514018574</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.665546415165861</v>
+        <v>0.7507118181201096</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.4451143576087773</v>
+        <v>0.5386462996751239</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>2.406519417355634</v>
+        <v>3.502603095818804</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.06514539186790691</v>
+        <v>0.04996106609711009</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.045655956009701196</v>
+        <v>0.031086398819132343</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.3385954069291194</v>
+        <v>0.6059436380554956</v>
       </c>
     </row>
     <row r="14">
@@ -4188,7 +3864,7 @@
         <v>0.8474854463861552</v>
       </c>
       <c r="D14" t="n" s="174">
-        <v>0.7925798345505441</v>
+        <v>0.7925798345505444</v>
       </c>
       <c r="E14" t="n" s="175">
         <v>0.6493996506993569</v>
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>55.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.8453295987276137</v>
+        <v>0.8881238469897463</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8377070313858472</v>
+        <v>0.8879279882068081</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.7857726288613263</v>
+        <v>0.8548984211857575</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.7117885669718617</v>
+        <v>0.774515230817296</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.0</v>
+        <v>2.290909090909091</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.0886621079036347</v>
+        <v>1.1654394700065542</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>55.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.8187831546853809</v>
+        <v>0.8453295987276137</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8009053448079152</v>
+        <v>0.8377070313858472</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.7161186722323628</v>
+        <v>0.7857726288613263</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.6430562023233264</v>
+        <v>0.7117885669718617</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>1.9090909090909092</v>
+        <v>2.0</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.2060453783110545</v>
+        <v>1.0886621079036347</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>55.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.8881238469897463</v>
+        <v>0.8187831546853809</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.8879279882068081</v>
+        <v>0.8009053448079152</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.8548984211857574</v>
+        <v>0.7161186722323627</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.774515230817296</v>
+        <v>0.6430562023233264</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.290909090909091</v>
+        <v>1.9090909090909092</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.1654394700065542</v>
+        <v>1.2060453783110545</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.6978598059418718</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.5579062993174517</v>
+        <v>0.5579062993174516</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.4768431395072925</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.4</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.34545454545454546</v>
+        <v>0.43636363636363634</v>
       </c>
       <c r="D27" t="n" s="225">
         <v>0.14545454545454545</v>
       </c>
       <c r="E27" t="n" s="226">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="F27" t="n" s="227">
         <v>0.07272727272727272</v>
-      </c>
-      <c r="F27" t="n" s="227">
-        <v>0.03636363636363636</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,16 +4089,16 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.5636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.12727272727272726</v>
+        <v>0.34545454545454546</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.18181818181818182</v>
+        <v>0.14545454545454545</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.09090909090909091</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="F28" t="n" s="227">
         <v>0.03636363636363636</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.2545454545454545</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.43636363636363634</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.14545454545454545</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="E29" t="n" s="226">
         <v>0.09090909090909091</v>
       </c>
       <c r="F29" t="n" s="227">
-        <v>0.07272727272727272</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4559,7 +4235,7 @@
         <v>0.846111568306065</v>
       </c>
       <c r="C6" t="n" s="261">
-        <v>0.8748578356860298</v>
+        <v>0.8748578356860299</v>
       </c>
       <c r="D6" t="n" s="262">
         <v>0.4781798400450884</v>
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7791830301777594</v>
+        <v>0.8484708173054091</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.785266631357905</v>
+        <v>0.8511761429585264</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.80746872997682</v>
+        <v>0.8577274726784796</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.4224285818190635</v>
+        <v>0.5335539285893401</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>3.656938073126126</v>
+        <v>5.719352796516517</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.04749823143420387</v>
+        <v>0.031515533540099616</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.028557054943242118</v>
+        <v>0.02521025186425148</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.4345169924489524</v>
+        <v>0.5149270647905848</v>
       </c>
     </row>
     <row r="12">
@@ -4674,10 +4350,10 @@
         <v>0.04738226289987145</v>
       </c>
       <c r="H12" t="n" s="292">
-        <v>0.03280128010690044</v>
+        <v>0.032801280106900435</v>
       </c>
       <c r="I12" t="n" s="293">
-        <v>0.4276942923036827</v>
+        <v>0.42769429230368267</v>
       </c>
     </row>
     <row r="13">
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.8235343423699588</v>
+        <v>0.8239557178726318</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.8329014446371913</v>
+        <v>0.8330124630589765</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.8539103381431061</v>
+        <v>0.8495584991729912</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.4992234053128649</v>
+        <v>0.49942287794130963</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>4.98449219281863</v>
+        <v>4.98847086626099</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.038586610795029196</v>
+        <v>0.038076104174949325</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.029183769352256472</v>
+        <v>0.039761058543927925</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.5022549823679401</v>
+        <v>0.48117292836256226</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.8120151840237664</v>
+        <v>0.7791830301777594</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.818988155821258</v>
+        <v>0.785266631357905</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.8410532472169794</v>
+        <v>0.8074687299768201</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.47503808009137954</v>
+        <v>0.4224285818190635</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>4.524500369227438</v>
+        <v>3.656938073126126</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.041423465204439736</v>
+        <v>0.04749823143420387</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.027873389141704626</v>
+        <v>0.028557054943242115</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.46566831926394414</v>
+        <v>0.4345169924489524</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.8239557178726318</v>
+        <v>0.8235343423699588</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.8330124630589765</v>
+        <v>0.8329014446371913</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.849558499172991</v>
+        <v>0.8539103381431061</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.49942287794130963</v>
+        <v>0.4992234053128649</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>4.98847086626099</v>
+        <v>4.98449219281863</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.038076104174949325</v>
+        <v>0.038586610795029196</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.03976105854392792</v>
+        <v>0.02918376935225648</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.48117292836256226</v>
+        <v>0.5022549823679401</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.8484708173054091</v>
+        <v>0.8120151840237664</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.8511761429585264</v>
+        <v>0.818988155821258</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.8577274726784798</v>
+        <v>0.8410532472169794</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.5335539285893401</v>
+        <v>0.47503808009137954</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>5.719352796516517</v>
+        <v>4.524500369227438</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.031515533540099595</v>
+        <v>0.041423465204439736</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.025210251864251475</v>
+        <v>0.027873389141704633</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.5149270647905848</v>
+        <v>0.46566831926394414</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>55.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.8671047919679609</v>
+        <v>0.6307051156989963</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.8753653950480599</v>
+        <v>0.628999796842452</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.8702477251621272</v>
+        <v>0.5414547112676577</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.8006166290586388</v>
+        <v>0.4463467876738123</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>1.8909090909090909</v>
+        <v>3.3454545454545452</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.8750180373321259</v>
+        <v>1.057918673240963</v>
       </c>
     </row>
     <row r="22">
@@ -4875,7 +4551,7 @@
         <v>0.8377126801159107</v>
       </c>
       <c r="E22" t="n" s="315">
-        <v>0.8216426989949873</v>
+        <v>0.8216426989949874</v>
       </c>
       <c r="F22" t="n" s="316">
         <v>0.7650166076149886</v>
@@ -4895,22 +4571,22 @@
         <v>55.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.697410835071969</v>
+        <v>0.680381333739099</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.7051107845652155</v>
+        <v>0.7046685524835102</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.6390462947811604</v>
+        <v>0.6302704312849097</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.557829794756166</v>
+        <v>0.5598906397120699</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.2181818181818183</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>0.9367182486965211</v>
+        <v>0.8040302522073697</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>55.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.7826908981308054</v>
+        <v>0.8671047919679609</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.7587298038903562</v>
+        <v>0.8753653950480599</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.7162631688969125</v>
+        <v>0.8702477251621273</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.635022540479482</v>
+        <v>0.8006166290586388</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>1.8</v>
+        <v>1.8909090909090909</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.1769389046102543</v>
+        <v>0.8750180373321259</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>55.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.680381333739099</v>
+        <v>0.697410835071969</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.7046685524835102</v>
+        <v>0.7051107845652155</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.6302704312849097</v>
+        <v>0.6390462947811605</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.5598906397120699</v>
+        <v>0.557829794756166</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.727272727272727</v>
+        <v>2.2181818181818183</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.8040302522073697</v>
+        <v>0.9367182486965211</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>55.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.6307051156989963</v>
+        <v>0.7826908981308054</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.628999796842452</v>
+        <v>0.7587298038903562</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.5414547112676577</v>
+        <v>0.7162631688969125</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.4463467876738123</v>
+        <v>0.635022540479482</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.3454545454545452</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>1.057918673240963</v>
+        <v>1.1769389046102543</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
-        <v>0.34545454545454546</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C31" t="n" s="338">
-        <v>0.4909090909090909</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="D31" t="n" s="339">
-        <v>0.10909090909090909</v>
+        <v>0.38181818181818183</v>
       </c>
       <c r="E31" t="n" s="340">
-        <v>0.03636363636363636</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.01818181818181818</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,19 +4754,19 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.18181818181818182</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="C33" t="n" s="338">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="D33" t="n" s="339">
         <v>0.5636363636363636</v>
       </c>
-      <c r="D33" t="n" s="339">
-        <v>0.12727272727272726</v>
-      </c>
       <c r="E33" t="n" s="340">
-        <v>0.10909090909090909</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="F33" t="n" s="341">
-        <v>0.01818181818181818</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G33" t="n" s="342">
         <v>0.0</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.5818181818181818</v>
+        <v>0.34545454545454546</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.2</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="D34" t="n" s="339">
         <v>0.10909090909090909</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.05454545454545454</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.05454545454545454</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,19 +4800,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.05454545454545454</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C35" t="n" s="338">
-        <v>0.2909090909090909</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.5636363636363636</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.05454545454545454</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="F35" t="n" s="341">
-        <v>0.03636363636363636</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G35" t="n" s="342">
         <v>0.0</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.03636363636363636</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C36" t="n" s="338">
-        <v>0.16363636363636364</v>
+        <v>0.2</v>
       </c>
       <c r="D36" t="n" s="339">
-        <v>0.38181818181818183</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="E36" t="n" s="340">
-        <v>0.2545454545454545</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="F36" t="n" s="341">
-        <v>0.16363636363636364</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.7869312953438139</v>
+        <v>0.6619343389529725</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.7902655713927802</v>
+        <v>0.6550223961816006</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.818526426804749</v>
+        <v>0.586786899693427</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.3499217462946661</v>
+        <v>0.387597489697713</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>3.7679344142050706</v>
+        <v>1.898738900529939</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.04294609240902285</v>
+        <v>0.07587454366301233</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.7974025974025976</v>
+        <v>2.618181818181818</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.6877015455781371</v>
+        <v>0.8711616146976168</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.3515796400328669</v>
+        <v>0.35157964003286696</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.7289424940771054</v>
+        <v>0.50875</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.7402281741271813</v>
+        <v>0.5202499795340472</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.7578424817175711</v>
+        <v>0.3515796400328669</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.3219980575025239</v>
+        <v>0.351579640032867</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>2.8495321678556036</v>
+        <v>1.0844188792920932</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.056298147967718634</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.035554782350124214</v>
-      </c>
+        <v>0.12802647380441154</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.3453731281554731</v>
+        <v>0.35157964003286696</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.7555588267765796</v>
+        <v>0.3984193398419338</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.7538109986938966</v>
+        <v>0.405819676045458</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.7725557084897308</v>
+        <v>0.2545632196982439</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.3378886509919827</v>
+        <v>0.25456321969824414</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>3.061919885513619</v>
+        <v>0.6829907684329606</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.04933737159121548</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.03798386857950937</v>
-      </c>
+        <v>0.15829311615375893</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.3515796400328669</v>
+        <v>0.254563219698244</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.7383276724039232</v>
+        <v>0.7149672033392964</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.7347135329954826</v>
+        <v>0.7151893477044757</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.7495795455099328</v>
+        <v>0.5566496093620279</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.315811262564982</v>
+        <v>0.5566496093620279</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>2.769510036797208</v>
+        <v>2.511104630182103</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.05307226094421553</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.02851188586669531</v>
-      </c>
+        <v>0.07681380265968729</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.32711732506562735</v>
+        <v>0.556649609362028</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.8148016577856719</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.8198392409904973</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.8247477283029454</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.43131187086566397</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>4.550598285097445</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.03809819884233012</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.013421564959654061</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.4185098803828963</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.7360112289972341</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.7447755756290442</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.7761092725565772</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.3272124849883439</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>2.918120307116652</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.054607037958931785</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.03548334278804626</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.3515796400328669</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.7686082605996422</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.7716010403578271</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.803901652510489</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.36022545012822604</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>3.3783036558777506</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.04707112686626409</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.04027035508632019</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.4143958734804298</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.7631896866258564</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.7675710324696825</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.7798666650966954</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.35500444702094036</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>3.3023897177083255</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.048792036434830356</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.0253576246068551</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.3453731281554731</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>55.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.8073629314791879</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.7848484914337531</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.6364115283118176</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.5140852358019441</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>2.7636363636363637</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.185774264377755</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>55.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.8492028129714448</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.8268883831142011</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.7157006884744358</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.585263388098784</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.2</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.223231906179812</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>55.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.6458232519876894</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.6959860157025798</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.41565006217897466</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.3443730022124485</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>2.890909090909091</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.95593133320585</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>55.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7836781496613096</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7553469585701181</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.724956188297317</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.6542425563376123</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>2.7636363636363637</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.185774264377755</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.2</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.38181818181818183</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>55.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.669602428677606</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.7041747217340572</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.6558992041529284</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.5489898910647935</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.709090909090909</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>0.8750180373321259</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.38181818181818183</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.23636363636363636</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>55.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.7514176111472265</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.7752702003300972</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.7587204759018699</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.6543825650594719</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.6363636363636362</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.8684519297052394</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>55.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.3870451275744867</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.4033253458731289</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.26411928394732553</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.1939994063986058</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.7454545454545456</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.9854155321709573</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>55.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.7566164649135565</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.7385550169446619</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.6885749479773209</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.6265914430105994</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.6363636363636362</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.111616046884101</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>55.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.613656666098338</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.6322438667714907</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.5291031187370185</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.4653206765517699</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>2.890909090909091</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.95593133320585</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>55.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.6843185147421073</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.6490569837708688</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.5928091746634305</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.5081461003140058</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.2</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.223231906179812</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.2</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.38181818181818183</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="F33" t="n" s="455">
+      <c r="B27" t="n" s="451">
         <v>0.07272727272727272</v>
       </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="C34" t="n" s="452">
-        <v>0.4727272727272727</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.32727272727272727</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.14545454545454545</v>
-      </c>
-      <c r="F34" t="n" s="455">
+      <c r="C27" t="n" s="452">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="D27" t="n" s="453">
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="E27" t="n" s="454">
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="F27" t="n" s="455">
         <v>0.03636363636363636</v>
       </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.4</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.2909090909090909</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.12727272727272726</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.43636363636363634</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.14545454545454545</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.2545454545454545</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.2545454545454545</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.41818181818181815</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.21818181818181817</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.38181818181818183</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.23636363636363636</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.2545454545454545</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
